--- a/Software Screen 7-17-22.xlsx
+++ b/Software Screen 7-17-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1840D8F3-4D95-461A-BA42-66C2D7DB3F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22848635-C2AF-4735-8F7E-2804D9FA7AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="-135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14468,7 +14468,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14541,11 +14541,11 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="2:10" s="4" customFormat="1" ht="15">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="9">
@@ -68744,9 +68744,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D6828877-C1C6-493B-AF87-E7872EAB43D7}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{491F41A4-5336-408A-83E5-AC16582224EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Software Screen 7-17-22.xlsx
+++ b/Software Screen 7-17-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C32AE-1D02-4793-BC9F-E96866190E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038470D-EDF6-458E-9D4A-0F258E599A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4670" uniqueCount="4636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4639">
   <si>
     <t>Ticker</t>
   </si>
@@ -13938,7 +13938,16 @@
     <t>NVIDIA</t>
   </si>
   <si>
-    <t>FORD</t>
+    <t>MU US Equity</t>
+  </si>
+  <si>
+    <t>MICRON TECHNOLOGY INC</t>
+  </si>
+  <si>
+    <t>Semiconductor</t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -14471,11 +14480,11 @@
   </sheetPr>
   <dimension ref="B2:J2315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14489,7 +14498,7 @@
     <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -14518,6 +14527,9 @@
       <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="7" t="s">
+        <v>4638</v>
+      </c>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="15">
       <c r="B3" s="6" t="s">
@@ -14631,41 +14643,58 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:10" s="4" customFormat="1" ht="12.75">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="6" t="s">
-        <v>4635</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="9">
+        <v>166543097856</v>
+      </c>
+      <c r="E8" s="5">
+        <v>167.3800048828125</v>
+      </c>
+      <c r="F8" s="5">
+        <v>616.4146728515625</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-34.136071433203341</v>
+      </c>
+      <c r="H8" s="9">
+        <v>27939999744</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.049999982118607</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>4630</v>
+      </c>
     </row>
     <row r="9" spans="2:10" s="4" customFormat="1" ht="12.75">
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="9">
-        <v>166543097856</v>
+        <v>110844985344</v>
       </c>
       <c r="E9" s="5">
-        <v>167.3800048828125</v>
+        <v>392.95999145507813</v>
       </c>
       <c r="F9" s="5">
-        <v>616.4146728515625</v>
+        <v>44.361572265625</v>
       </c>
       <c r="G9" s="5">
-        <v>-34.136071433203341</v>
+        <v>-38.645646601758934</v>
       </c>
       <c r="H9" s="9">
-        <v>27939999744</v>
+        <v>12872999936</v>
       </c>
       <c r="I9" s="5">
-        <v>1.049999982118607</v>
+        <v>8.9299998581409454</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>4630</v>
@@ -14673,28 +14702,28 @@
     </row>
     <row r="10" spans="2:10" s="4" customFormat="1" ht="12.75">
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9">
-        <v>110844985344</v>
+        <v>107299749888</v>
       </c>
       <c r="E10" s="5">
-        <v>392.95999145507813</v>
+        <v>87.341781616210938</v>
       </c>
       <c r="F10" s="5">
-        <v>44.361572265625</v>
+        <v>20.621913909912109</v>
       </c>
       <c r="G10" s="5">
-        <v>-38.645646601758934</v>
+        <v>-36.911858491523667</v>
       </c>
       <c r="H10" s="9">
-        <v>12872999936</v>
+        <v>33168835151.389885</v>
       </c>
       <c r="I10" s="5">
-        <v>8.9299998581409454</v>
+        <v>4.9031212732631788</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>4630</v>
@@ -14702,60 +14731,61 @@
     </row>
     <row r="11" spans="2:10" s="4" customFormat="1" ht="12.75">
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9">
-        <v>107299749888</v>
+        <v>87324336128</v>
       </c>
       <c r="E11" s="5">
-        <v>87.341781616210938</v>
+        <v>435.6199951171875</v>
       </c>
       <c r="F11" s="5">
-        <v>20.621913909912109</v>
+        <v>366.41085815429688</v>
       </c>
       <c r="G11" s="5">
-        <v>-36.911858491523667</v>
+        <v>-32.889648141639263</v>
       </c>
       <c r="H11" s="9">
-        <v>33168835151.389885</v>
+        <v>6256999936</v>
       </c>
       <c r="I11" s="5">
-        <v>4.9031212732631788</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>4630</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="4" customFormat="1" ht="12.75">
+    <row r="12" spans="2:10" s="4" customFormat="1" ht="15">
       <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>4635</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>4636</v>
       </c>
       <c r="D12" s="9">
-        <v>87324336128</v>
+        <f>1103145108*E12</f>
+        <v>71748557824.320007</v>
       </c>
       <c r="E12" s="5">
-        <v>435.6199951171875</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="F12" s="5">
-        <v>366.41085815429688</v>
+        <v>6.93</v>
       </c>
       <c r="G12" s="5">
-        <v>-32.889648141639263</v>
+        <v>-30.71</v>
       </c>
       <c r="H12" s="9">
-        <v>6256999936</v>
+        <v>32239000000</v>
       </c>
       <c r="I12" s="5">
-        <v>1.129999995231628</v>
+        <v>8.86</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>4630</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="4" customFormat="1" ht="12.75">
@@ -68788,9 +68818,10 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D6828877-C1C6-493B-AF87-E7872EAB43D7}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{491F41A4-5336-408A-83E5-AC16582224EC}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{2C9FC7DC-0C41-4E2D-8C6D-E40F2EFBF8B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
